--- a/urenverantwoording/Model urenplanning en verantwoording.xlsx
+++ b/urenverantwoording/Model urenplanning en verantwoording.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t xml:space="preserve">Planning en registratie van de uren </t>
   </si>
@@ -151,6 +151,30 @@
   </si>
   <si>
     <t>Inlezen RTSP voor komende week + aanpak opzetten</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>presentatie</t>
+  </si>
+  <si>
+    <t>eindverslag</t>
+  </si>
+  <si>
+    <t>eindverslag feedback verwerken</t>
+  </si>
+  <si>
+    <t>coderen</t>
+  </si>
+  <si>
+    <t>testuitslagen verwerken in code</t>
+  </si>
+  <si>
+    <t>laatste codering</t>
+  </si>
+  <si>
+    <t>terugkoppeling</t>
   </si>
 </sst>
 </file>
@@ -666,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1007"/>
+  <dimension ref="A1:X1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1823,26 +1847,34 @@
       <c r="C24" s="21">
         <v>4</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="24">
+        <v>4</v>
+      </c>
       <c r="E24" s="22">
         <v>4</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>4</v>
+      </c>
       <c r="G24" s="23">
         <v>4</v>
       </c>
-      <c r="H24" s="25"/>
+      <c r="H24" s="25">
+        <v>4</v>
+      </c>
       <c r="I24" s="22">
         <v>4</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="19">
+        <v>4</v>
+      </c>
       <c r="K24" s="18">
         <f>C25+E24+G24+I24</f>
         <v>13</v>
       </c>
       <c r="L24" s="19">
         <f>D24+F24+H24+J24</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2394,21 +2426,31 @@
       <c r="X36" s="3"/>
     </row>
     <row r="37" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>6</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="24">
+        <v>5</v>
+      </c>
       <c r="D37" s="27"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="22">
+        <v>5</v>
+      </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="28"/>
+      <c r="G37" s="25">
+        <v>5</v>
+      </c>
       <c r="H37" s="28"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="22">
+        <v>5</v>
+      </c>
       <c r="J37" s="9"/>
       <c r="K37" s="18">
         <f t="shared" ref="K37:L37" si="31">C37+E37+G37+I37</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L37" s="19">
         <f t="shared" si="31"/>
@@ -2431,18 +2473,28 @@
       <c r="A38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
+      <c r="B38" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="24">
+        <v>3</v>
+      </c>
       <c r="D38" s="27"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="22">
+        <v>3</v>
+      </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="28"/>
+      <c r="G38" s="25">
+        <v>3</v>
+      </c>
       <c r="H38" s="28"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="22">
+        <v>3</v>
+      </c>
       <c r="J38" s="9"/>
       <c r="K38" s="18">
         <f t="shared" ref="K38:L38" si="32">C38+E38+G38+I38</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L38" s="19">
         <f t="shared" si="32"/>
@@ -2465,18 +2517,28 @@
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
+      <c r="B39" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="24">
+        <v>3</v>
+      </c>
       <c r="D39" s="27"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="22">
+        <v>3</v>
+      </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="25">
+        <v>3</v>
+      </c>
       <c r="H39" s="28"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="22">
+        <v>3</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="18">
         <f t="shared" ref="K39:L39" si="33">C39+E39+G39+I39</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L39" s="19">
         <f t="shared" si="33"/>
@@ -2497,54 +2559,62 @@
     </row>
     <row r="40" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="24">
+        <v>3</v>
+      </c>
       <c r="D40" s="27"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="22">
+        <v>3</v>
+      </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="25">
+        <v>3</v>
+      </c>
       <c r="H40" s="28"/>
-      <c r="I40" s="9"/>
+      <c r="I40" s="22">
+        <v>3</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="18">
         <f t="shared" ref="K40:L40" si="34">C40+E40+G40+I40</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
     </row>
     <row r="41" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="24">
+        <v>3</v>
+      </c>
       <c r="D41" s="27"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="22">
+        <v>3</v>
+      </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="25">
+        <v>3</v>
+      </c>
       <c r="H41" s="28"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="22">
+        <v>3</v>
+      </c>
       <c r="J41" s="9"/>
       <c r="K41" s="18">
         <f t="shared" ref="K41:L41" si="35">C41+E41+G41+I41</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L41" s="19">
         <f t="shared" si="35"/>
@@ -2553,20 +2623,30 @@
     </row>
     <row r="42" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="24">
+        <v>2</v>
+      </c>
       <c r="D42" s="27"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="22">
+        <v>2</v>
+      </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="25">
+        <v>2</v>
+      </c>
       <c r="H42" s="28"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="22">
+        <v>2</v>
+      </c>
       <c r="J42" s="9"/>
       <c r="K42" s="18">
         <f t="shared" ref="K42:L42" si="36">C42+E42+G42+I42</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L42" s="19">
         <f t="shared" si="36"/>
@@ -2575,20 +2655,30 @@
     </row>
     <row r="43" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="24">
+        <v>4</v>
+      </c>
       <c r="D43" s="27"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="22">
+        <v>4</v>
+      </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="25">
+        <v>4</v>
+      </c>
       <c r="H43" s="28"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="22">
+        <v>4</v>
+      </c>
       <c r="J43" s="9"/>
       <c r="K43" s="18">
         <f t="shared" ref="K43:L43" si="37">C43+E43+G43+I43</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L43" s="19">
         <f t="shared" si="37"/>
@@ -2599,18 +2689,28 @@
       <c r="A44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="24">
+        <v>1</v>
+      </c>
       <c r="D44" s="27"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="22">
+        <v>1</v>
+      </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="25">
+        <v>1</v>
+      </c>
       <c r="H44" s="28"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="22">
+        <v>1</v>
+      </c>
       <c r="J44" s="9"/>
       <c r="K44" s="18">
         <f t="shared" ref="K44:L44" si="38">C44+E44+G44+I44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" s="19">
         <f t="shared" si="38"/>
@@ -2621,18 +2721,28 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="24">
+        <v>2</v>
+      </c>
       <c r="D45" s="27"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="22">
+        <v>2</v>
+      </c>
       <c r="F45" s="9"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="25">
+        <v>2</v>
+      </c>
       <c r="H45" s="28"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="22">
+        <v>2</v>
+      </c>
       <c r="J45" s="9"/>
       <c r="K45" s="18">
         <f t="shared" ref="K45:L45" si="39">C45+E45+G45+I45</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L45" s="19">
         <f t="shared" si="39"/>
@@ -2640,152 +2750,120 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A46" s="26"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="18">
-        <f t="shared" ref="K46:L46" si="40">C46+E46+G46+I46</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="19">
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="35">
+        <f>SUM(C5:C46)</f>
+        <v>77</v>
+      </c>
+      <c r="D47" s="35">
+        <f>SUM(D5:D46)</f>
+        <v>30.5</v>
+      </c>
+      <c r="E47" s="35">
+        <f>SUM(E5:E46)</f>
+        <v>77</v>
+      </c>
+      <c r="F47" s="35">
+        <f>SUM(F5:F46)</f>
+        <v>30.5</v>
+      </c>
+      <c r="G47" s="35">
+        <f>SUM(G5:G46)</f>
+        <v>77</v>
+      </c>
+      <c r="H47" s="35">
+        <f>SUM(H5:H46)</f>
+        <v>30.5</v>
+      </c>
+      <c r="I47" s="35">
+        <f>SUM(I5:I46)</f>
+        <v>77</v>
+      </c>
+      <c r="J47" s="35">
+        <f>SUM(J5:J46)</f>
+        <v>30.5</v>
+      </c>
+      <c r="K47" s="35">
+        <f t="shared" ref="K47:L47" si="40">C47+E47+G47+I47</f>
+        <v>308</v>
+      </c>
+      <c r="L47" s="35">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="18">
-        <f t="shared" ref="K47:L47" si="41">C47+E47+G47+I47</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="19">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="18">
-        <f t="shared" ref="K48:L48" si="42">C48+E48+G48+I48</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="19">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="18">
-        <f t="shared" ref="K49:L49" si="43">C49+E49+G49+I49</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="19">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
-    </row>
-    <row r="51" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="35">
-        <f t="shared" ref="C51:J51" si="44">SUM(C5:C50)</f>
-        <v>51</v>
-      </c>
-      <c r="D51" s="35">
-        <f t="shared" si="44"/>
-        <v>26.5</v>
-      </c>
-      <c r="E51" s="35">
-        <f t="shared" si="44"/>
-        <v>51</v>
-      </c>
-      <c r="F51" s="35">
-        <f t="shared" si="44"/>
-        <v>26.5</v>
-      </c>
-      <c r="G51" s="35">
-        <f t="shared" si="44"/>
-        <v>51</v>
-      </c>
-      <c r="H51" s="35">
-        <f t="shared" si="44"/>
-        <v>26.5</v>
-      </c>
-      <c r="I51" s="35">
-        <f t="shared" si="44"/>
-        <v>51</v>
-      </c>
-      <c r="J51" s="35">
-        <f t="shared" si="44"/>
-        <v>26.5</v>
-      </c>
-      <c r="K51" s="35">
-        <f t="shared" ref="K51:L51" si="45">C51+E51+G51+I51</f>
-        <v>204</v>
-      </c>
-      <c r="L51" s="35">
-        <f t="shared" si="45"/>
-        <v>106</v>
-      </c>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+    </row>
+    <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
@@ -16115,62 +16193,6 @@
       <c r="K1003" s="36"/>
       <c r="L1003" s="36"/>
     </row>
-    <row r="1004" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1004" s="36"/>
-      <c r="B1004" s="36"/>
-      <c r="C1004" s="36"/>
-      <c r="D1004" s="36"/>
-      <c r="E1004" s="36"/>
-      <c r="F1004" s="36"/>
-      <c r="G1004" s="36"/>
-      <c r="H1004" s="36"/>
-      <c r="I1004" s="36"/>
-      <c r="J1004" s="36"/>
-      <c r="K1004" s="36"/>
-      <c r="L1004" s="36"/>
-    </row>
-    <row r="1005" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="36"/>
-      <c r="B1005" s="36"/>
-      <c r="C1005" s="36"/>
-      <c r="D1005" s="36"/>
-      <c r="E1005" s="36"/>
-      <c r="F1005" s="36"/>
-      <c r="G1005" s="36"/>
-      <c r="H1005" s="36"/>
-      <c r="I1005" s="36"/>
-      <c r="J1005" s="36"/>
-      <c r="K1005" s="36"/>
-      <c r="L1005" s="36"/>
-    </row>
-    <row r="1006" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="36"/>
-      <c r="B1006" s="36"/>
-      <c r="C1006" s="36"/>
-      <c r="D1006" s="36"/>
-      <c r="E1006" s="36"/>
-      <c r="F1006" s="36"/>
-      <c r="G1006" s="36"/>
-      <c r="H1006" s="36"/>
-      <c r="I1006" s="36"/>
-      <c r="J1006" s="36"/>
-      <c r="K1006" s="36"/>
-      <c r="L1006" s="36"/>
-    </row>
-    <row r="1007" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1007" s="36"/>
-      <c r="B1007" s="36"/>
-      <c r="C1007" s="36"/>
-      <c r="D1007" s="36"/>
-      <c r="E1007" s="36"/>
-      <c r="F1007" s="36"/>
-      <c r="G1007" s="36"/>
-      <c r="H1007" s="36"/>
-      <c r="I1007" s="36"/>
-      <c r="J1007" s="36"/>
-      <c r="K1007" s="36"/>
-      <c r="L1007" s="36"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:D3"/>

--- a/urenverantwoording/Model urenplanning en verantwoording.xlsx
+++ b/urenverantwoording/Model urenplanning en verantwoording.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remco\Documents\GitHub\Thema6-team10\urenverantwoording\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\Thema6-team10\urenverantwoording\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t xml:space="preserve">Planning en registratie van de uren </t>
   </si>
@@ -189,7 +189,7 @@
     <t>Requirements architectuur overleg</t>
   </si>
   <si>
-    <t>opzet technisch verlag</t>
+    <t>opzet technisch verslag</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,9 +443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -483,7 +483,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -555,7 +555,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -708,7 +708,7 @@
   <dimension ref="A1:X1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2434,26 +2434,34 @@
       <c r="C35" s="24">
         <v>1</v>
       </c>
-      <c r="D35" s="24"/>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
       <c r="E35" s="19">
         <v>1</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="19">
+        <v>1</v>
+      </c>
       <c r="G35" s="25">
         <v>1</v>
       </c>
-      <c r="H35" s="25"/>
+      <c r="H35" s="25">
+        <v>1</v>
+      </c>
       <c r="I35" s="19">
         <v>1</v>
       </c>
-      <c r="J35" s="19"/>
+      <c r="J35" s="19">
+        <v>1</v>
+      </c>
       <c r="K35" s="18">
         <f t="shared" ref="K35:L35" si="25">C35+E35+G35+I35</f>
         <v>4</v>
       </c>
       <c r="L35" s="19">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -2478,26 +2486,34 @@
       <c r="C36" s="24">
         <v>3</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="27">
+        <v>3.5</v>
+      </c>
       <c r="E36" s="22">
         <v>3</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9">
+        <v>3.5</v>
+      </c>
       <c r="G36" s="25">
         <v>3</v>
       </c>
-      <c r="H36" s="28"/>
+      <c r="H36" s="28">
+        <v>3.5</v>
+      </c>
       <c r="I36" s="22">
         <v>3</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="9">
+        <v>3.5</v>
+      </c>
       <c r="K36" s="18">
         <f t="shared" ref="K36:L36" si="26">C36+E36+G36+I36</f>
         <v>12</v>
       </c>
       <c r="L36" s="19">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -2522,26 +2538,34 @@
       <c r="C37" s="24">
         <v>2</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="27">
+        <v>2</v>
+      </c>
       <c r="E37" s="22">
         <v>2</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9">
+        <v>2</v>
+      </c>
       <c r="G37" s="25">
         <v>2</v>
       </c>
-      <c r="H37" s="28"/>
+      <c r="H37" s="28">
+        <v>2</v>
+      </c>
       <c r="I37" s="22">
         <v>2</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="9">
+        <v>2</v>
+      </c>
       <c r="K37" s="18">
         <f t="shared" ref="K37:L37" si="27">C37+E37+G37+I37</f>
         <v>8</v>
       </c>
       <c r="L37" s="19">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -2566,26 +2590,34 @@
       <c r="C38" s="24">
         <v>1</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="27">
+        <v>1</v>
+      </c>
       <c r="E38" s="22">
         <v>1</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
       <c r="G38" s="25">
         <v>1</v>
       </c>
-      <c r="H38" s="28"/>
+      <c r="H38" s="28">
+        <v>1</v>
+      </c>
       <c r="I38" s="22">
         <v>1</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="9">
+        <v>1</v>
+      </c>
       <c r="K38" s="18">
         <f t="shared" ref="K38:L39" si="28">C38+E38+G38+I38</f>
         <v>4</v>
       </c>
       <c r="L38" s="19">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -2653,8 +2685,8 @@
       <c r="X39" s="3"/>
     </row>
     <row r="40" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>6</v>
+      <c r="A40" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>40</v>
@@ -3045,7 +3077,7 @@
       </c>
       <c r="D51" s="35">
         <f t="shared" si="39"/>
-        <v>45.5</v>
+        <v>53</v>
       </c>
       <c r="E51" s="35">
         <f t="shared" si="39"/>
@@ -3053,7 +3085,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="39"/>
-        <v>45.5</v>
+        <v>53</v>
       </c>
       <c r="G51" s="35">
         <f t="shared" si="39"/>
@@ -3061,7 +3093,7 @@
       </c>
       <c r="H51" s="35">
         <f t="shared" si="39"/>
-        <v>45.5</v>
+        <v>53</v>
       </c>
       <c r="I51" s="35">
         <f t="shared" si="39"/>
@@ -3069,7 +3101,7 @@
       </c>
       <c r="J51" s="35">
         <f t="shared" si="39"/>
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="K51" s="35">
         <f t="shared" ref="K51:L51" si="40">C51+E51+G51+I51</f>
@@ -3077,7 +3109,7 @@
       </c>
       <c r="L51" s="35">
         <f t="shared" si="40"/>
-        <v>181.5</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/urenverantwoording/Model urenplanning en verantwoording.xlsx
+++ b/urenverantwoording/Model urenplanning en verantwoording.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t xml:space="preserve">Planning en registratie van de uren </t>
   </si>
@@ -162,9 +162,6 @@
     <t>eindverslag</t>
   </si>
   <si>
-    <t>eindverslag feedback verwerken</t>
-  </si>
-  <si>
     <t>coderen</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>laatste codering</t>
-  </si>
-  <si>
-    <t>terugkoppeling</t>
   </si>
   <si>
     <t>Use Case Diagram</t>
@@ -190,6 +184,12 @@
   </si>
   <si>
     <t>opzet technisch verslag</t>
+  </si>
+  <si>
+    <t>Webapplicatie programmeren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coderen </t>
   </si>
 </sst>
 </file>
@@ -705,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1007"/>
+  <dimension ref="A1:X1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2117,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="24">
         <v>2</v>
@@ -2169,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="24">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="24">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="24">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="24">
         <v>1</v>
@@ -2694,26 +2694,34 @@
       <c r="C40" s="27">
         <v>1.5</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="27">
+        <v>2.5</v>
+      </c>
       <c r="E40" s="9">
         <v>1.5</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9">
+        <v>2.5</v>
+      </c>
       <c r="G40" s="28">
         <v>1.5</v>
       </c>
-      <c r="H40" s="28"/>
+      <c r="H40" s="28">
+        <v>2.5</v>
+      </c>
       <c r="I40" s="9">
         <v>1.5</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="9">
+        <v>2.5</v>
+      </c>
       <c r="K40" s="18">
-        <f t="shared" ref="K40:L40" si="29">C40+E40+G40+I40</f>
+        <f t="shared" ref="K40:L41" si="29">C40+E40+G40+I40</f>
         <v>6</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -2729,35 +2737,43 @@
       <c r="X40" s="3"/>
     </row>
     <row r="41" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="24">
-        <v>5</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="22">
-        <v>5</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="25">
-        <v>5</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="22">
-        <v>5</v>
-      </c>
-      <c r="J41" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C41" s="27">
+        <v>10</v>
+      </c>
+      <c r="D41" s="27">
+        <v>13</v>
+      </c>
+      <c r="E41" s="20">
+        <v>10</v>
+      </c>
+      <c r="F41" s="20">
+        <v>4</v>
+      </c>
+      <c r="G41" s="28">
+        <v>10</v>
+      </c>
+      <c r="H41" s="28">
+        <v>4</v>
+      </c>
+      <c r="I41" s="20">
+        <v>10</v>
+      </c>
+      <c r="J41" s="20">
+        <v>6</v>
+      </c>
       <c r="K41" s="18">
-        <f t="shared" ref="K41:L41" si="30">C41+E41+G41+I41</f>
-        <v>20</v>
-      </c>
-      <c r="L41" s="19">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>40</v>
+      </c>
+      <c r="L41" s="22">
+        <f t="shared" si="29"/>
+        <v>27</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -2777,31 +2793,39 @@
         <v>32</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42" s="24">
-        <v>3</v>
-      </c>
-      <c r="D42" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="D42" s="27">
+        <v>4</v>
+      </c>
       <c r="E42" s="22">
-        <v>3</v>
-      </c>
-      <c r="F42" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="F42" s="9">
+        <v>7</v>
+      </c>
       <c r="G42" s="25">
-        <v>3</v>
-      </c>
-      <c r="H42" s="28"/>
+        <v>12</v>
+      </c>
+      <c r="H42" s="28">
+        <v>14</v>
+      </c>
       <c r="I42" s="22">
-        <v>3</v>
-      </c>
-      <c r="J42" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="J42" s="9">
+        <v>14</v>
+      </c>
       <c r="K42" s="18">
-        <f t="shared" ref="K42:L42" si="31">C42+E42+G42+I42</f>
-        <v>12</v>
+        <f t="shared" ref="K42:L42" si="30">C42+E42+G42+I42</f>
+        <v>48</v>
       </c>
       <c r="L42" s="19">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>39</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -2821,31 +2845,39 @@
         <v>32</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C43" s="24">
-        <v>3</v>
-      </c>
-      <c r="D43" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="D43" s="27">
+        <v>7</v>
+      </c>
       <c r="E43" s="22">
-        <v>3</v>
-      </c>
-      <c r="F43" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="F43" s="9">
+        <v>6</v>
+      </c>
       <c r="G43" s="25">
-        <v>3</v>
-      </c>
-      <c r="H43" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="H43" s="28">
+        <v>7</v>
+      </c>
       <c r="I43" s="22">
-        <v>3</v>
-      </c>
-      <c r="J43" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="J43" s="9">
+        <v>7</v>
+      </c>
       <c r="K43" s="18">
-        <f t="shared" ref="K43:L43" si="32">C43+E43+G43+I43</f>
-        <v>12</v>
+        <f t="shared" ref="K43:L43" si="31">C43+E43+G43+I43</f>
+        <v>24</v>
       </c>
       <c r="L43" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>27</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -2862,130 +2894,198 @@
     </row>
     <row r="44" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="24">
+        <v>4</v>
+      </c>
+      <c r="D44" s="27">
+        <v>5</v>
+      </c>
+      <c r="E44" s="22">
+        <v>4</v>
+      </c>
+      <c r="F44" s="9">
+        <v>5</v>
+      </c>
+      <c r="G44" s="25">
+        <v>4</v>
+      </c>
+      <c r="H44" s="28">
+        <v>5</v>
+      </c>
+      <c r="I44" s="22">
+        <v>4</v>
+      </c>
+      <c r="J44" s="9">
+        <v>5</v>
+      </c>
+      <c r="K44" s="18">
+        <f t="shared" ref="K44:L46" si="32">C44+E44+G44+I44</f>
+        <v>16</v>
+      </c>
+      <c r="L44" s="19">
+        <f t="shared" si="32"/>
+        <v>20</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="24">
-        <v>3</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="22">
-        <v>3</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="25">
-        <v>3</v>
-      </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="22">
-        <v>3</v>
-      </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="18">
-        <f t="shared" ref="K44:L44" si="33">C44+E44+G44+I44</f>
-        <v>12</v>
-      </c>
-      <c r="L44" s="19">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="B45" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="24">
+        <v>13</v>
+      </c>
+      <c r="D45" s="27">
+        <v>6</v>
+      </c>
+      <c r="E45" s="22">
+        <v>13</v>
+      </c>
+      <c r="F45" s="20">
+        <v>14</v>
+      </c>
+      <c r="G45" s="25">
+        <v>13</v>
+      </c>
+      <c r="H45" s="28">
+        <v>15</v>
+      </c>
+      <c r="I45" s="22">
+        <v>13</v>
+      </c>
+      <c r="J45" s="20">
+        <v>13</v>
+      </c>
+      <c r="K45" s="18">
+        <f t="shared" si="32"/>
+        <v>52</v>
+      </c>
+      <c r="L45" s="22">
+        <f t="shared" si="32"/>
+        <v>48</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="24">
-        <v>3</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="22">
-        <v>3</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="25">
-        <v>3</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="22">
-        <v>3</v>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="18">
-        <f t="shared" ref="K45:L45" si="34">C45+E45+G45+I45</f>
-        <v>12</v>
-      </c>
-      <c r="L45" s="19">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="B46" s="26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C46" s="24">
-        <v>2</v>
-      </c>
-      <c r="D46" s="27"/>
+        <v>13</v>
+      </c>
+      <c r="D46" s="27">
+        <v>15</v>
+      </c>
       <c r="E46" s="22">
-        <v>2</v>
-      </c>
-      <c r="F46" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="F46" s="20">
+        <v>7</v>
+      </c>
       <c r="G46" s="25">
-        <v>2</v>
-      </c>
-      <c r="H46" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="H46" s="28">
+        <v>4</v>
+      </c>
       <c r="I46" s="22">
-        <v>2</v>
-      </c>
-      <c r="J46" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="J46" s="20">
+        <v>5</v>
+      </c>
       <c r="K46" s="18">
-        <f t="shared" ref="K46:L46" si="35">C46+E46+G46+I46</f>
-        <v>8</v>
-      </c>
-      <c r="L46" s="19">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="32"/>
+        <v>52</v>
+      </c>
+      <c r="L46" s="22">
+        <f t="shared" si="32"/>
+        <v>31</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
     </row>
     <row r="47" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="24">
-        <v>4</v>
-      </c>
-      <c r="D47" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="D47" s="27">
+        <v>5</v>
+      </c>
       <c r="E47" s="22">
-        <v>4</v>
-      </c>
-      <c r="F47" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="F47" s="9">
+        <v>8</v>
+      </c>
       <c r="G47" s="25">
-        <v>4</v>
-      </c>
-      <c r="H47" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="H47" s="28">
+        <v>6</v>
+      </c>
       <c r="I47" s="22">
-        <v>4</v>
-      </c>
-      <c r="J47" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="J47" s="9">
+        <v>6</v>
+      </c>
       <c r="K47" s="18">
-        <f t="shared" ref="K47:L47" si="36">C47+E47+G47+I47</f>
-        <v>16</v>
+        <f t="shared" ref="K47:L47" si="33">C47+E47+G47+I47</f>
+        <v>24</v>
       </c>
       <c r="L47" s="19">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2993,31 +3093,39 @@
         <v>33</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C48" s="24">
-        <v>1</v>
-      </c>
-      <c r="D48" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="D48" s="27">
+        <v>7</v>
+      </c>
       <c r="E48" s="22">
-        <v>1</v>
-      </c>
-      <c r="F48" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F48" s="9">
+        <v>7</v>
+      </c>
       <c r="G48" s="25">
-        <v>1</v>
-      </c>
-      <c r="H48" s="28"/>
+        <v>10</v>
+      </c>
+      <c r="H48" s="28">
+        <v>11</v>
+      </c>
       <c r="I48" s="22">
-        <v>1</v>
-      </c>
-      <c r="J48" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="J48" s="9">
+        <v>11</v>
+      </c>
       <c r="K48" s="18">
-        <f t="shared" ref="K48:L48" si="37">C48+E48+G48+I48</f>
-        <v>4</v>
+        <f t="shared" ref="K48:L48" si="34">C48+E48+G48+I48</f>
+        <v>40</v>
       </c>
       <c r="L48" s="19">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3025,106 +3133,140 @@
         <v>33</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="24">
-        <v>2</v>
-      </c>
-      <c r="D49" s="27"/>
+        <v>15</v>
+      </c>
+      <c r="D49" s="27">
+        <v>4</v>
+      </c>
       <c r="E49" s="22">
-        <v>2</v>
-      </c>
-      <c r="F49" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="F49" s="9">
+        <v>7</v>
+      </c>
       <c r="G49" s="25">
-        <v>2</v>
-      </c>
-      <c r="H49" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="H49" s="28">
+        <v>4</v>
+      </c>
       <c r="I49" s="22">
-        <v>2</v>
-      </c>
-      <c r="J49" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="J49" s="9">
+        <v>3</v>
+      </c>
       <c r="K49" s="18">
-        <f t="shared" ref="K49:L49" si="38">C49+E49+G49+I49</f>
-        <v>8</v>
+        <f t="shared" ref="K49:L49" si="35">C49+E49+G49+I49</f>
+        <v>60</v>
       </c>
       <c r="L49" s="19">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
-    </row>
-    <row r="51" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34" t="s">
+      <c r="A50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="24">
+        <v>3</v>
+      </c>
+      <c r="D50" s="27">
+        <v>3</v>
+      </c>
+      <c r="E50" s="22">
+        <v>3</v>
+      </c>
+      <c r="F50" s="9">
+        <v>3</v>
+      </c>
+      <c r="G50" s="25">
+        <v>3</v>
+      </c>
+      <c r="H50" s="28">
+        <v>3</v>
+      </c>
+      <c r="I50" s="22">
+        <v>3</v>
+      </c>
+      <c r="J50" s="9">
+        <v>3</v>
+      </c>
+      <c r="K50" s="18">
+        <f t="shared" ref="K50:L50" si="36">C50+E50+G50+I50</f>
+        <v>12</v>
+      </c>
+      <c r="L50" s="19">
+        <f t="shared" si="36"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="32"/>
+    </row>
+    <row r="52" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="35">
-        <f t="shared" ref="C51:J51" si="39">SUM(C5:C50)</f>
-        <v>80</v>
-      </c>
-      <c r="D51" s="35">
-        <f t="shared" si="39"/>
-        <v>53</v>
-      </c>
-      <c r="E51" s="35">
-        <f t="shared" si="39"/>
-        <v>80</v>
-      </c>
-      <c r="F51" s="35">
-        <f t="shared" si="39"/>
-        <v>53</v>
-      </c>
-      <c r="G51" s="35">
-        <f t="shared" si="39"/>
-        <v>80</v>
-      </c>
-      <c r="H51" s="35">
-        <f t="shared" si="39"/>
-        <v>53</v>
-      </c>
-      <c r="I51" s="35">
-        <f t="shared" si="39"/>
-        <v>79</v>
-      </c>
-      <c r="J51" s="35">
-        <f t="shared" si="39"/>
-        <v>52.5</v>
-      </c>
-      <c r="K51" s="35">
-        <f t="shared" ref="K51:L51" si="40">C51+E51+G51+I51</f>
-        <v>319</v>
-      </c>
-      <c r="L51" s="35">
-        <f t="shared" si="40"/>
-        <v>211.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
+      <c r="C52" s="35">
+        <f>SUM(C5:C51)</f>
+        <v>146</v>
+      </c>
+      <c r="D52" s="35">
+        <f>SUM(D5:D51)</f>
+        <v>124.5</v>
+      </c>
+      <c r="E52" s="35">
+        <f>SUM(E5:E51)</f>
+        <v>146</v>
+      </c>
+      <c r="F52" s="35">
+        <f>SUM(F5:F51)</f>
+        <v>123.5</v>
+      </c>
+      <c r="G52" s="35">
+        <f>SUM(G5:G51)</f>
+        <v>146</v>
+      </c>
+      <c r="H52" s="35">
+        <f>SUM(H5:H51)</f>
+        <v>128.5</v>
+      </c>
+      <c r="I52" s="35">
+        <f>SUM(I5:I51)</f>
+        <v>145</v>
+      </c>
+      <c r="J52" s="35">
+        <f>SUM(J5:J51)</f>
+        <v>128</v>
+      </c>
+      <c r="K52" s="35">
+        <f t="shared" ref="K52:L52" si="37">C52+E52+G52+I52</f>
+        <v>583</v>
+      </c>
+      <c r="L52" s="35">
+        <f t="shared" si="37"/>
+        <v>504.5</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
@@ -16496,6 +16638,20 @@
       <c r="K1007" s="36"/>
       <c r="L1007" s="36"/>
     </row>
+    <row r="1008" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="36"/>
+      <c r="B1008" s="36"/>
+      <c r="C1008" s="36"/>
+      <c r="D1008" s="36"/>
+      <c r="E1008" s="36"/>
+      <c r="F1008" s="36"/>
+      <c r="G1008" s="36"/>
+      <c r="H1008" s="36"/>
+      <c r="I1008" s="36"/>
+      <c r="J1008" s="36"/>
+      <c r="K1008" s="36"/>
+      <c r="L1008" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:D3"/>
